--- a/data/category_book.xlsx
+++ b/data/category_book.xlsx
@@ -3,26 +3,94 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CE5E48-0274-424E-AD74-5771E368C96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A533E-851C-42DA-A098-9640FE55F6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="390" windowWidth="13200" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="0" windowWidth="13140" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Khoa học</t>
+  </si>
+  <si>
+    <t>Kinh điển</t>
+  </si>
+  <si>
+    <t>Lịch sử Việt Nam</t>
+  </si>
+  <si>
+    <t>Văn học</t>
+  </si>
+  <si>
+    <t>Lịch sử Thế giới</t>
+  </si>
+  <si>
+    <t>Nhật Bản</t>
+  </si>
+  <si>
+    <t>Vật lý</t>
+  </si>
+  <si>
+    <t>Nghệ thuật</t>
+  </si>
+  <si>
+    <t>Tâm lý học</t>
+  </si>
+  <si>
+    <t>Thiếu nhi</t>
+  </si>
+  <si>
+    <t>Y học</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Kinh tế</t>
+  </si>
+  <si>
+    <t>Âm nhạc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y sinh </t>
+  </si>
+  <si>
+    <t>Giáo dục</t>
+  </si>
+  <si>
+    <t>Mẹ và bé</t>
+  </si>
+  <si>
+    <t>Quản trị</t>
+  </si>
+  <si>
+    <t>Cuộc sống</t>
+  </si>
+  <si>
+    <t>Ẩm thực</t>
   </si>
 </sst>
 </file>
@@ -350,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,13 +438,107 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/category_book.xlsx
+++ b/data/category_book.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A533E-851C-42DA-A098-9640FE55F6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F6ED1-00A9-4B8A-95CB-7F528A4463C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="0" windowWidth="13140" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,86 +459,103 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
